--- a/data/psra_attributes_en.xlsx
+++ b/data/psra_attributes_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/D02851567E26E8B7/Documents - cloud/work/psra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\data\view_outputs\all_indicators\seismic_risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D8A27177-6D9F-4D75-AEC0-81296AB319ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3883F-6239-474A-8098-2F196400691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AD340AF0-FAAA-4FB8-9687-4697F5806778}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AD340AF0-FAAA-4FB8-9687-4697F5806778}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="343">
   <si>
     <t xml:space="preserve">Summary Data Description </t>
   </si>
@@ -669,12 +669,6 @@
     <t>Capital Asset Loss (Building + Contents)</t>
   </si>
   <si>
-    <t>Expected number of annual fatalities in buildings from potential earthquakes expressed in micromort (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t>Annual probability of fatalities in buildings from potential earthuquakes expressed in micromort (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
     <t>eDt_Slight (b0,r1)</t>
   </si>
   <si>
@@ -1063,6 +1057,18 @@
   </si>
   <si>
     <t>eqri_norm_score (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of annual fatalities in buildings from potential earthquakes (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>Annual probability of fatalities in buildings from potential earthuquakes (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>Annual probability of fatalities in buildings from potential earthuquakes expressed (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>Expected number of annual fatalities in buildings from potential earthquakes expressed (b0 = baseline, r1 = retrofit)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4575B1-D694-4B9C-9715-398568E31F12}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7710ED-B2A3-404D-8835-9DEA8FF9CF67}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1646,7 +1652,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3"/>
     </row>
@@ -1664,7 +1670,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1682,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1700,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F6"/>
     </row>
@@ -1718,7 +1724,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F7"/>
     </row>
@@ -1736,7 +1742,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F8"/>
     </row>
@@ -1754,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F9"/>
     </row>
@@ -1772,7 +1778,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F10"/>
     </row>
@@ -1790,7 +1796,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F11"/>
     </row>
@@ -1808,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12"/>
     </row>
@@ -1844,7 +1850,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F14"/>
     </row>
@@ -1862,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F15"/>
     </row>
@@ -1880,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F16"/>
     </row>
@@ -1898,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F17"/>
     </row>
@@ -1916,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18"/>
     </row>
@@ -1934,7 +1940,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F19"/>
     </row>
@@ -1952,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20"/>
     </row>
@@ -1970,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F21"/>
     </row>
@@ -1988,7 +1994,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22"/>
     </row>
@@ -2006,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F23"/>
     </row>
@@ -2042,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F25"/>
     </row>
@@ -2060,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F26"/>
     </row>
@@ -2078,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27"/>
     </row>
@@ -2096,7 +2102,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F28"/>
     </row>
@@ -2114,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F29"/>
     </row>
@@ -2132,7 +2138,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F30"/>
     </row>
@@ -2150,7 +2156,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F31"/>
     </row>
@@ -2168,7 +2174,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F32"/>
     </row>
@@ -2186,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F33"/>
     </row>
@@ -2204,7 +2210,7 @@
         <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F34"/>
     </row>
@@ -2240,7 +2246,7 @@
         <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="F36"/>
     </row>
@@ -2258,7 +2264,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="F37"/>
     </row>
@@ -2276,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F38"/>
     </row>
@@ -2294,7 +2300,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F39"/>
     </row>
@@ -2610,9 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23F9AC-E2F9-4A53-AF7D-AE09FDD87047}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2660,7 +2664,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>23</v>
@@ -2672,12 +2676,12 @@
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>26</v>
@@ -2689,12 +2693,12 @@
         <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>29</v>
@@ -2706,12 +2710,12 @@
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>30</v>
@@ -2723,12 +2727,12 @@
         <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>31</v>
@@ -2740,12 +2744,12 @@
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>32</v>
@@ -2757,12 +2761,12 @@
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>33</v>
@@ -2774,12 +2778,12 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>34</v>
@@ -2791,12 +2795,12 @@
         <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>35</v>
@@ -2808,12 +2812,12 @@
         <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>36</v>
@@ -2825,12 +2829,12 @@
         <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>181</v>
@@ -2847,7 +2851,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>37</v>
@@ -2859,12 +2863,12 @@
         <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>41</v>
@@ -2876,12 +2880,12 @@
         <v>28</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>38</v>
@@ -2893,12 +2897,12 @@
         <v>25</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>42</v>
@@ -2910,12 +2914,12 @@
         <v>28</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>39</v>
@@ -2927,12 +2931,12 @@
         <v>25</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>43</v>
@@ -2944,12 +2948,12 @@
         <v>28</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>40</v>
@@ -2961,12 +2965,12 @@
         <v>25</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>44</v>
@@ -2978,12 +2982,12 @@
         <v>28</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>45</v>
@@ -2995,12 +2999,12 @@
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>46</v>
@@ -3012,15 +3016,15 @@
         <v>28</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>24</v>
@@ -3034,7 +3038,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>47</v>
@@ -3046,12 +3050,12 @@
         <v>25</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>48</v>
@@ -3063,12 +3067,12 @@
         <v>28</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>49</v>
@@ -3080,12 +3084,12 @@
         <v>25</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>50</v>
@@ -3097,12 +3101,12 @@
         <v>28</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>51</v>
@@ -3114,12 +3118,12 @@
         <v>25</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>52</v>
@@ -3131,12 +3135,12 @@
         <v>28</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>53</v>
@@ -3148,12 +3152,12 @@
         <v>25</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>54</v>
@@ -3165,12 +3169,12 @@
         <v>28</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>55</v>
@@ -3182,12 +3186,12 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>56</v>
@@ -3199,15 +3203,15 @@
         <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>24</v>
@@ -3221,7 +3225,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>57</v>
@@ -3233,12 +3237,12 @@
         <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>59</v>
@@ -3250,12 +3254,12 @@
         <v>28</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>61</v>
@@ -3267,12 +3271,12 @@
         <v>25</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>63</v>
@@ -3284,12 +3288,12 @@
         <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>65</v>
@@ -3306,7 +3310,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>66</v>
@@ -3323,7 +3327,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>67</v>
@@ -3340,7 +3344,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>68</v>
@@ -3357,7 +3361,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>69</v>
@@ -3374,10 +3378,10 @@
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>60</v>
@@ -3386,15 +3390,15 @@
         <v>21</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>20</v>
@@ -3403,15 +3407,15 @@
         <v>21</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>60</v>
@@ -3420,15 +3424,15 @@
         <v>21</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>20</v>
@@ -3437,7 +3441,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,7 +3641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C15BAC-E523-484A-AECB-D611FBD98BEF}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>23</v>
@@ -3713,12 +3719,12 @@
         <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>26</v>
@@ -3730,12 +3736,12 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>29</v>
@@ -3747,12 +3753,12 @@
         <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>30</v>
@@ -3764,12 +3770,12 @@
         <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>31</v>
@@ -3781,12 +3787,12 @@
         <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>32</v>
@@ -3798,12 +3804,12 @@
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>33</v>
@@ -3815,12 +3821,12 @@
         <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>34</v>
@@ -3832,12 +3838,12 @@
         <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>35</v>
@@ -3849,12 +3855,12 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>36</v>
@@ -3866,12 +3872,12 @@
         <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>181</v>
@@ -3888,7 +3894,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>37</v>
@@ -3900,12 +3906,12 @@
         <v>25</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>41</v>
@@ -3917,12 +3923,12 @@
         <v>28</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>38</v>
@@ -3934,12 +3940,12 @@
         <v>25</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>42</v>
@@ -3951,12 +3957,12 @@
         <v>28</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>39</v>
@@ -3968,12 +3974,12 @@
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>43</v>
@@ -3985,12 +3991,12 @@
         <v>28</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>40</v>
@@ -4002,12 +4008,12 @@
         <v>25</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>44</v>
@@ -4019,12 +4025,12 @@
         <v>28</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>45</v>
@@ -4036,12 +4042,12 @@
         <v>25</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>46</v>
@@ -4053,15 +4059,15 @@
         <v>28</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>24</v>
@@ -4075,7 +4081,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>47</v>
@@ -4087,12 +4093,12 @@
         <v>25</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>48</v>
@@ -4104,12 +4110,12 @@
         <v>28</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>49</v>
@@ -4121,12 +4127,12 @@
         <v>25</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>50</v>
@@ -4138,12 +4144,12 @@
         <v>28</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>51</v>
@@ -4155,12 +4161,12 @@
         <v>25</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>52</v>
@@ -4172,12 +4178,12 @@
         <v>28</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>53</v>
@@ -4189,12 +4195,12 @@
         <v>25</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>54</v>
@@ -4206,12 +4212,12 @@
         <v>28</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>55</v>
@@ -4223,12 +4229,12 @@
         <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>56</v>
@@ -4240,15 +4246,15 @@
         <v>28</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>24</v>
@@ -4262,7 +4268,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
@@ -4274,12 +4280,12 @@
         <v>25</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>209</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>59</v>
@@ -4291,12 +4297,12 @@
         <v>28</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>61</v>
@@ -4308,12 +4314,12 @@
         <v>25</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>63</v>
@@ -4325,12 +4331,12 @@
         <v>28</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>65</v>
@@ -4347,7 +4353,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>66</v>
@@ -4364,7 +4370,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>67</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>68</v>
@@ -4398,7 +4404,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>69</v>
@@ -4415,10 +4421,10 @@
     </row>
     <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>60</v>
@@ -4427,15 +4433,15 @@
         <v>21</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>20</v>
@@ -4444,15 +4450,15 @@
         <v>21</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>60</v>
@@ -4461,15 +4467,15 @@
         <v>21</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>20</v>
@@ -4478,7 +4484,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4538,7 +4544,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>110</v>
@@ -4550,12 +4556,12 @@
         <v>25</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -4567,12 +4573,12 @@
         <v>28</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>112</v>
@@ -4584,12 +4590,12 @@
         <v>25</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>113</v>
@@ -4601,12 +4607,12 @@
         <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>114</v>
@@ -4618,12 +4624,12 @@
         <v>25</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>115</v>
@@ -4635,7 +4641,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4711,7 +4717,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -4823,7 +4829,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>20</v>
@@ -4859,7 +4865,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>20</v>
@@ -4892,10 +4898,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>62</v>
@@ -4904,16 +4910,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>62</v>
@@ -4922,13 +4928,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>111</v>
@@ -4940,13 +4946,13 @@
         <v>28</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>128</v>
@@ -4958,16 +4964,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>62</v>
@@ -4976,16 +4982,16 @@
         <v>25</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>64</v>
@@ -4994,16 +5000,16 @@
         <v>28</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>62</v>
@@ -5012,16 +5018,16 @@
         <v>25</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>62</v>
@@ -5030,15 +5036,15 @@
         <v>25</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>64</v>
@@ -5047,7 +5053,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5103,7 +5109,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="2"/>
@@ -5113,7 +5119,7 @@
         <v>135</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>20</v>
@@ -5122,7 +5128,7 @@
         <v>87</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="2"/>
@@ -5132,7 +5138,7 @@
         <v>134</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>20</v>
@@ -5141,7 +5147,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="2"/>
@@ -5167,10 +5173,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>60</v>
